--- a/docs/CareConnect-ACVPU-Observation-1.xlsx
+++ b/docs/CareConnect-ACVPU-Observation-1.xlsx
@@ -698,10 +698,13 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>A code from SNOMED Clinical Terminology UK</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -775,6 +778,9 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1240,9 +1246,6 @@
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
@@ -1280,7 +1283,7 @@
     <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1 </t>
+    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.id</t>
@@ -1433,6 +1436,9 @@
   </si>
   <si>
     <t>Observation.method.coding</t>
+  </si>
+  <si>
+    <t>A code from SNOMED Clinical Terminology UK</t>
   </si>
   <si>
     <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ObservationMethod-1</t>
@@ -1824,12 +1830,6 @@
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "code".</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -4785,13 +4785,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4824,27 +4824,27 @@
         <v>45</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4959,7 +4959,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5076,7 +5076,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5099,19 +5099,19 @@
         <v>57</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -5160,7 +5160,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -5181,10 +5181,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -5195,7 +5195,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5310,7 +5310,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5427,7 +5427,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5453,23 +5453,23 @@
         <v>69</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>45</v>
@@ -5511,7 +5511,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5532,10 +5532,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5572,13 +5572,13 @@
         <v>120</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5628,7 +5628,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5649,10 +5649,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5689,21 +5689,21 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>45</v>
@@ -5745,7 +5745,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5766,10 +5766,10 @@
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5806,21 +5806,21 @@
         <v>120</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>45</v>
@@ -5862,7 +5862,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5883,10 +5883,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5920,19 +5920,19 @@
         <v>57</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5981,7 +5981,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -6002,10 +6002,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6042,16 +6042,16 @@
         <v>120</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -6100,7 +6100,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -6121,10 +6121,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6158,19 +6158,19 @@
         <v>57</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -6219,7 +6219,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -6234,19 +6234,19 @@
         <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>45</v>
@@ -6254,11 +6254,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6277,19 +6277,19 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -6338,7 +6338,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -6353,19 +6353,19 @@
         <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>45</v>
@@ -6373,11 +6373,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6396,19 +6396,19 @@
         <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6457,7 +6457,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6472,19 +6472,19 @@
         <v>45</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6492,7 +6492,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6515,16 +6515,16 @@
         <v>57</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6574,7 +6574,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6595,13 +6595,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6632,17 +6632,17 @@
         <v>57</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6691,7 +6691,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6706,19 +6706,19 @@
         <v>45</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6726,10 +6726,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>45</v>
@@ -6754,16 +6754,16 @@
         <v>142</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6791,10 +6791,10 @@
         <v>136</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6812,7 +6812,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6821,33 +6821,33 @@
         <v>56</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6962,7 +6962,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7079,7 +7079,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7102,19 +7102,19 @@
         <v>57</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -7163,7 +7163,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -7184,10 +7184,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7313,7 +7313,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7430,7 +7430,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7456,23 +7456,23 @@
         <v>69</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>45</v>
@@ -7514,7 +7514,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7535,10 +7535,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7549,7 +7549,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7575,13 +7575,13 @@
         <v>120</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7631,7 +7631,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7652,10 +7652,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7666,7 +7666,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7692,14 +7692,14 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7748,7 +7748,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7769,10 +7769,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7809,14 +7809,14 @@
         <v>120</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7865,7 +7865,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7886,10 +7886,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7900,7 +7900,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7923,19 +7923,19 @@
         <v>57</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7984,7 +7984,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -8005,10 +8005,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8045,16 +8045,16 @@
         <v>120</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -8103,7 +8103,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -8124,10 +8124,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8164,16 +8164,16 @@
         <v>142</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -8201,10 +8201,10 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -8222,7 +8222,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -8231,13 +8231,13 @@
         <v>56</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>45</v>
@@ -8246,7 +8246,7 @@
         <v>99</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -8257,11 +8257,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -8283,14 +8283,14 @@
         <v>142</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -8318,10 +8318,10 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -8339,7 +8339,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8357,24 +8357,24 @@
         <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8400,14 +8400,14 @@
         <v>120</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8456,7 +8456,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8471,16 +8471,16 @@
         <v>45</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8491,7 +8491,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8517,13 +8517,13 @@
         <v>142</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8549,13 +8549,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>394</v>
+        <v>219</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8573,7 +8573,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8591,24 +8591,24 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8723,7 +8723,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8840,7 +8840,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8863,19 +8863,19 @@
         <v>57</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8912,7 +8912,7 @@
         <v>45</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AB58" s="2"/>
       <c r="AC58" t="s" s="2">
@@ -8922,7 +8922,7 @@
         <v>129</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8943,10 +8943,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8957,10 +8957,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>45</v>
@@ -8982,19 +8982,19 @@
         <v>57</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -9022,10 +9022,10 @@
         <v>209</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -9043,7 +9043,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -9064,10 +9064,10 @@
         <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
@@ -9078,7 +9078,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9193,7 +9193,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9219,10 +9219,10 @@
         <v>102</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9308,10 +9308,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>45</v>
@@ -9333,13 +9333,13 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9540,7 +9540,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9566,10 +9566,10 @@
         <v>102</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9655,10 +9655,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>45</v>
@@ -9683,10 +9683,10 @@
         <v>102</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9887,7 +9887,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10004,7 +10004,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10030,13 +10030,13 @@
         <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10044,7 +10044,7 @@
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>45</v>
@@ -10086,7 +10086,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>56</v>
@@ -10121,10 +10121,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>45</v>
@@ -10149,10 +10149,10 @@
         <v>58</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10203,7 +10203,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10238,10 +10238,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>45</v>
@@ -10266,10 +10266,10 @@
         <v>102</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10355,7 +10355,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10470,7 +10470,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10587,7 +10587,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10613,13 +10613,13 @@
         <v>69</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>45</v>
@@ -10669,7 +10669,7 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>56</v>
@@ -10704,10 +10704,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>45</v>
@@ -10732,10 +10732,10 @@
         <v>120</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10786,7 +10786,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10821,7 +10821,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10847,13 +10847,13 @@
         <v>69</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R75" t="s" s="2">
         <v>45</v>
@@ -10903,7 +10903,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>56</v>
@@ -10938,7 +10938,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10961,13 +10961,13 @@
         <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -11018,7 +11018,7 @@
         <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
@@ -11053,7 +11053,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11079,23 +11079,23 @@
         <v>69</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>45</v>
@@ -11137,7 +11137,7 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
@@ -11158,10 +11158,10 @@
         <v>45</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11172,7 +11172,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11198,13 +11198,13 @@
         <v>120</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11254,7 +11254,7 @@
         <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11275,10 +11275,10 @@
         <v>45</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11289,7 +11289,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11315,14 +11315,14 @@
         <v>75</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>45</v>
@@ -11371,7 +11371,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11392,10 +11392,10 @@
         <v>45</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11406,7 +11406,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11432,14 +11432,14 @@
         <v>120</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
@@ -11488,7 +11488,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11509,10 +11509,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11523,7 +11523,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11546,19 +11546,19 @@
         <v>57</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11607,7 +11607,7 @@
         <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
@@ -11628,10 +11628,10 @@
         <v>45</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>45</v>
@@ -11642,7 +11642,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11668,16 +11668,16 @@
         <v>120</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>45</v>
@@ -11726,7 +11726,7 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
@@ -11747,10 +11747,10 @@
         <v>45</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
@@ -11761,7 +11761,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11787,16 +11787,16 @@
         <v>142</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
@@ -11821,13 +11821,13 @@
         <v>45</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>394</v>
+        <v>219</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>45</v>
@@ -11845,7 +11845,7 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
@@ -11866,10 +11866,10 @@
         <v>45</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
@@ -11880,7 +11880,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11995,7 +11995,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12112,7 +12112,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12135,19 +12135,19 @@
         <v>57</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
@@ -12184,7 +12184,7 @@
         <v>45</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AB86" s="2"/>
       <c r="AC86" t="s" s="2">
@@ -12194,7 +12194,7 @@
         <v>129</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -12215,10 +12215,10 @@
         <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -12229,10 +12229,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>45</v>
@@ -12254,19 +12254,19 @@
         <v>57</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>45</v>
@@ -12294,10 +12294,10 @@
         <v>209</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>219</v>
+        <v>459</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>45</v>
@@ -12315,7 +12315,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12336,10 +12336,10 @@
         <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -12350,7 +12350,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12465,7 +12465,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12491,10 +12491,10 @@
         <v>102</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12580,10 +12580,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>45</v>
@@ -12605,13 +12605,13 @@
         <v>45</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12697,7 +12697,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12812,7 +12812,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12838,10 +12838,10 @@
         <v>102</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12927,10 +12927,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>45</v>
@@ -12955,10 +12955,10 @@
         <v>102</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13044,7 +13044,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13159,7 +13159,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13276,7 +13276,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13302,13 +13302,13 @@
         <v>69</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>45</v>
@@ -13358,7 +13358,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>56</v>
@@ -13393,10 +13393,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>45</v>
@@ -13421,10 +13421,10 @@
         <v>58</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -13475,7 +13475,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -13510,10 +13510,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>45</v>
@@ -13538,10 +13538,10 @@
         <v>102</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13627,7 +13627,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13742,7 +13742,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13859,7 +13859,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13885,13 +13885,13 @@
         <v>69</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -13899,7 +13899,7 @@
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R101" t="s" s="2">
         <v>45</v>
@@ -13941,7 +13941,7 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>56</v>
@@ -13976,10 +13976,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>45</v>
@@ -14004,10 +14004,10 @@
         <v>120</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -14058,7 +14058,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14093,7 +14093,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14119,13 +14119,13 @@
         <v>69</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>45</v>
@@ -14175,7 +14175,7 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>56</v>
@@ -14210,7 +14210,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14233,13 +14233,13 @@
         <v>45</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -14290,7 +14290,7 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
@@ -14325,7 +14325,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14351,23 +14351,23 @@
         <v>69</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="R105" t="s" s="2">
         <v>45</v>
@@ -14409,7 +14409,7 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
@@ -14430,10 +14430,10 @@
         <v>45</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -14444,7 +14444,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14470,13 +14470,13 @@
         <v>120</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14526,7 +14526,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14547,10 +14547,10 @@
         <v>45</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -14561,7 +14561,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14587,14 +14587,14 @@
         <v>75</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>45</v>
@@ -14643,7 +14643,7 @@
         <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -14664,10 +14664,10 @@
         <v>45</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
@@ -14678,7 +14678,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14704,14 +14704,14 @@
         <v>120</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>45</v>
@@ -14760,7 +14760,7 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -14781,10 +14781,10 @@
         <v>45</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>45</v>
@@ -14795,7 +14795,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14818,19 +14818,19 @@
         <v>57</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>45</v>
@@ -14879,7 +14879,7 @@
         <v>45</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
@@ -14900,10 +14900,10 @@
         <v>45</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>45</v>
@@ -14914,7 +14914,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14940,16 +14940,16 @@
         <v>120</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -14998,7 +14998,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -15019,10 +15019,10 @@
         <v>45</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>45</v>
@@ -15033,7 +15033,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15056,16 +15056,16 @@
         <v>45</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -15115,7 +15115,7 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
@@ -15133,24 +15133,24 @@
         <v>45</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15173,16 +15173,16 @@
         <v>45</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -15232,7 +15232,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15250,24 +15250,24 @@
         <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15290,19 +15290,19 @@
         <v>45</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>45</v>
@@ -15351,7 +15351,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -15363,7 +15363,7 @@
         <v>45</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>45</v>
@@ -15372,10 +15372,10 @@
         <v>45</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>45</v>
@@ -15386,7 +15386,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15501,7 +15501,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15618,11 +15618,11 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15647,7 +15647,7 @@
         <v>108</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>105</v>
@@ -15700,7 +15700,7 @@
         <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
@@ -15735,7 +15735,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15758,13 +15758,13 @@
         <v>45</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -15815,7 +15815,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -15824,7 +15824,7 @@
         <v>56</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>45</v>
@@ -15836,10 +15836,10 @@
         <v>45</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>45</v>
@@ -15850,7 +15850,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15873,13 +15873,13 @@
         <v>45</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
@@ -15930,31 +15930,31 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL118" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AF118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="AM118" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
@@ -15965,7 +15965,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15991,16 +15991,16 @@
         <v>142</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>45</v>
@@ -16028,10 +16028,10 @@
         <v>79</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>45</v>
@@ -16049,7 +16049,7 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
@@ -16067,13 +16067,13 @@
         <v>45</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
@@ -16084,7 +16084,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16110,16 +16110,16 @@
         <v>142</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
@@ -16144,13 +16144,13 @@
         <v>45</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>394</v>
+        <v>219</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>45</v>
@@ -16168,7 +16168,7 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
@@ -16186,13 +16186,13 @@
         <v>45</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
@@ -16203,7 +16203,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16226,17 +16226,17 @@
         <v>45</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
@@ -16285,7 +16285,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -16309,7 +16309,7 @@
         <v>45</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
@@ -16320,7 +16320,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16346,10 +16346,10 @@
         <v>120</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
@@ -16400,7 +16400,7 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -16421,10 +16421,10 @@
         <v>45</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
@@ -16435,7 +16435,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16458,19 +16458,19 @@
         <v>57</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>45</v>
@@ -16519,7 +16519,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -16531,7 +16531,7 @@
         <v>45</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>45</v>
@@ -16540,10 +16540,10 @@
         <v>45</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
@@ -16554,7 +16554,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16669,7 +16669,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16786,11 +16786,11 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -16815,7 +16815,7 @@
         <v>108</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>105</v>
@@ -16868,7 +16868,7 @@
         <v>45</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>43</v>
@@ -16903,7 +16903,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16929,16 +16929,16 @@
         <v>75</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>45</v>
@@ -16966,10 +16966,10 @@
         <v>136</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>45</v>
@@ -16987,7 +16987,7 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -17011,7 +17011,7 @@
         <v>99</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>45</v>
@@ -17022,7 +17022,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17045,13 +17045,13 @@
         <v>45</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -17102,7 +17102,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>56</v>
@@ -17126,7 +17126,7 @@
         <v>45</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>45</v>
@@ -17137,7 +17137,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17160,19 +17160,19 @@
         <v>57</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>45</v>
@@ -17221,7 +17221,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>43</v>
@@ -17233,7 +17233,7 @@
         <v>45</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>45</v>
@@ -17242,10 +17242,10 @@
         <v>45</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
@@ -17256,7 +17256,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17371,7 +17371,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17488,11 +17488,11 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17517,7 +17517,7 @@
         <v>108</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>105</v>
@@ -17570,7 +17570,7 @@
         <v>45</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>43</v>
@@ -17605,7 +17605,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17631,10 +17631,10 @@
         <v>142</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
@@ -17663,13 +17663,13 @@
         <v>45</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>394</v>
+        <v>219</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>583</v>
+        <v>220</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>584</v>
+        <v>221</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>45</v>
@@ -17687,7 +17687,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>56</v>
@@ -17708,13 +17708,13 @@
         <v>585</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>45</v>
@@ -17977,19 +17977,19 @@
         <v>57</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>45</v>
@@ -18036,7 +18036,7 @@
         <v>129</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>43</v>
@@ -18057,10 +18057,10 @@
         <v>45</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>45</v>
@@ -18074,7 +18074,7 @@
         <v>588</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>45</v>
@@ -18096,19 +18096,19 @@
         <v>57</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>45</v>
@@ -18157,7 +18157,7 @@
         <v>45</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>43</v>
@@ -18178,10 +18178,10 @@
         <v>45</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>45</v>
@@ -18333,10 +18333,10 @@
         <v>102</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
@@ -18425,7 +18425,7 @@
         <v>593</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>45</v>
@@ -18447,13 +18447,13 @@
         <v>45</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -18680,10 +18680,10 @@
         <v>102</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
@@ -18772,7 +18772,7 @@
         <v>595</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>45</v>
@@ -18797,10 +18797,10 @@
         <v>102</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
@@ -19144,13 +19144,13 @@
         <v>69</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -19158,7 +19158,7 @@
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R146" t="s" s="2">
         <v>45</v>
@@ -19200,7 +19200,7 @@
         <v>45</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>56</v>
@@ -19238,7 +19238,7 @@
         <v>599</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>45</v>
@@ -19263,10 +19263,10 @@
         <v>58</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
@@ -19317,7 +19317,7 @@
         <v>45</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>43</v>
@@ -19355,7 +19355,7 @@
         <v>595</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C148" t="s" s="2">
         <v>45</v>
@@ -19380,10 +19380,10 @@
         <v>102</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
@@ -19727,13 +19727,13 @@
         <v>69</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
@@ -19741,7 +19741,7 @@
       </c>
       <c r="P151" s="2"/>
       <c r="Q151" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R151" t="s" s="2">
         <v>45</v>
@@ -19783,7 +19783,7 @@
         <v>45</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>56</v>
@@ -19821,7 +19821,7 @@
         <v>600</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>45</v>
@@ -19846,10 +19846,10 @@
         <v>120</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -19900,7 +19900,7 @@
         <v>45</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>43</v>
@@ -19961,13 +19961,13 @@
         <v>69</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R153" t="s" s="2">
         <v>45</v>
@@ -20017,7 +20017,7 @@
         <v>45</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>56</v>
@@ -20075,13 +20075,13 @@
         <v>45</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -20132,7 +20132,7 @@
         <v>45</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>43</v>
@@ -20193,23 +20193,23 @@
         <v>69</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P155" s="2"/>
       <c r="Q155" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="R155" t="s" s="2">
         <v>45</v>
@@ -20251,7 +20251,7 @@
         <v>45</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>43</v>
@@ -20272,10 +20272,10 @@
         <v>45</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>45</v>
@@ -20312,13 +20312,13 @@
         <v>120</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
@@ -20368,7 +20368,7 @@
         <v>45</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>43</v>
@@ -20389,10 +20389,10 @@
         <v>45</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>45</v>
@@ -20429,14 +20429,14 @@
         <v>75</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M157" s="2"/>
       <c r="N157" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>45</v>
@@ -20485,7 +20485,7 @@
         <v>45</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>43</v>
@@ -20506,10 +20506,10 @@
         <v>45</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>45</v>
@@ -20546,14 +20546,14 @@
         <v>120</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M158" s="2"/>
       <c r="N158" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>45</v>
@@ -20602,7 +20602,7 @@
         <v>45</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>43</v>
@@ -20623,10 +20623,10 @@
         <v>45</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>45</v>
@@ -20660,19 +20660,19 @@
         <v>57</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>45</v>
@@ -20721,7 +20721,7 @@
         <v>45</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>43</v>
@@ -20742,10 +20742,10 @@
         <v>45</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM159" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AN159" t="s" s="2">
         <v>45</v>
@@ -20782,16 +20782,16 @@
         <v>120</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>45</v>
@@ -20840,7 +20840,7 @@
         <v>45</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>43</v>
@@ -20861,10 +20861,10 @@
         <v>45</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AM160" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AN160" t="s" s="2">
         <v>45</v>
@@ -20904,13 +20904,13 @@
         <v>611</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M161" t="s" s="2">
         <v>612</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>45</v>
@@ -20980,16 +20980,16 @@
         <v>613</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM161" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AN161" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="162" hidden="true">
@@ -21023,13 +21023,13 @@
         <v>615</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M162" t="s" s="2">
         <v>616</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>45</v>
@@ -21057,10 +21057,10 @@
         <v>79</v>
       </c>
       <c r="X162" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Z162" t="s" s="2">
         <v>45</v>
@@ -21087,7 +21087,7 @@
         <v>56</v>
       </c>
       <c r="AH162" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AI162" t="s" s="2">
         <v>45</v>
@@ -21102,7 +21102,7 @@
         <v>99</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>45</v>
@@ -21117,7 +21117,7 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21139,16 +21139,16 @@
         <v>142</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M163" t="s" s="2">
         <v>618</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>45</v>
@@ -21176,10 +21176,10 @@
         <v>79</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Z163" t="s" s="2">
         <v>45</v>
@@ -21215,19 +21215,19 @@
         <v>45</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="164" hidden="true">
@@ -21261,13 +21261,13 @@
         <v>620</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>45</v>
@@ -21337,10 +21337,10 @@
         <v>45</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>45</v>
